--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1024475440811435</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626703788179144</v>
+        <v>-1.626539303180968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02256603927268754</v>
+        <v>0.02146737392601965</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2213612779744014</v>
+        <v>-0.2221152331335044</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1062283216363419</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650080333159141</v>
+        <v>-1.650194449545435</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02375914576663346</v>
+        <v>0.02241650745616397</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.19651538614467</v>
+        <v>-0.1974424834071161</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1195221633078586</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.704618521693088</v>
+        <v>-1.70442649136029</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01790986243155965</v>
+        <v>-0.01892510476479859</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2067087339742132</v>
+        <v>-0.207587036643899</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1350188212264563</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.815255538719753</v>
+        <v>-1.81509498876938</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0276231344291062</v>
+        <v>-0.02799775097997576</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2265161905966611</v>
+        <v>-0.2271788526467287</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1417857908423225</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783502063976194</v>
+        <v>-1.782667046832344</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01114315422908799</v>
+        <v>-0.0106945587795173</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2205915826240853</v>
+        <v>-0.2213817402229783</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.134378352341772</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.606471346393944</v>
+        <v>-1.605940114940505</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05236536927715216</v>
+        <v>0.05296034850500381</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2029011817197869</v>
+        <v>-0.2040502156783364</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.114577502872359</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.346821939153744</v>
+        <v>-1.346252931241394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0810487197246146</v>
+        <v>0.08282893535080567</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1917398121306437</v>
+        <v>-0.192851069630282</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.0861213056763018</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9383206916503795</v>
+        <v>-0.9382152323692523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1781940318530504</v>
+        <v>0.1797224044198334</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1647768645827629</v>
+        <v>-0.1661478352374158</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.052921006664093</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4924215368344715</v>
+        <v>-0.492429406930078</v>
       </c>
       <c r="F10" t="n">
-        <v>0.192744264610354</v>
+        <v>0.1946629939192195</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.117010106308651</v>
+        <v>-0.1187667116480225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.01821755868466351</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.009682464484520955</v>
+        <v>-0.01077955581206753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1646700595628349</v>
+        <v>0.1666737859042507</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05224708956273415</v>
+        <v>-0.05423192767469432</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01696123991968009</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5534087099887084</v>
+        <v>0.5511877690085532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1317667638511653</v>
+        <v>0.1331755109647295</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04149834126369221</v>
+        <v>0.039419062004454</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05607444939374617</v>
       </c>
       <c r="E13" t="n">
-        <v>1.129921545509269</v>
+        <v>1.12643824119383</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009733061376723029</v>
+        <v>0.01184067298014465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1415980872828095</v>
+        <v>0.1399107387847751</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1037032207399452</v>
       </c>
       <c r="E14" t="n">
-        <v>1.745155251413826</v>
+        <v>1.740557541560507</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1991392760198782</v>
+        <v>-0.1962446548558063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2606631896944787</v>
+        <v>0.259120650955604</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.161839147166933</v>
       </c>
       <c r="E15" t="n">
-        <v>2.395894106637563</v>
+        <v>2.390322078948159</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4734498843654343</v>
+        <v>-0.4700122266045136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3851555100363927</v>
+        <v>0.3833154816835922</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2310917209836035</v>
       </c>
       <c r="E16" t="n">
-        <v>3.025378981666377</v>
+        <v>3.019303267858156</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7087185224262481</v>
+        <v>-0.7054193783480018</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5355546110957947</v>
+        <v>0.5332297848536336</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.311059628627863</v>
       </c>
       <c r="E17" t="n">
-        <v>3.627656936183508</v>
+        <v>3.621417524386672</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9539200081520299</v>
+        <v>-0.9499369527655785</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6987536356496139</v>
+        <v>0.6960353046271276</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4004025874349471</v>
       </c>
       <c r="E18" t="n">
-        <v>4.204701790167068</v>
+        <v>4.19716538661428</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.176856993407013</v>
+        <v>-1.173111614907878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8355170090611881</v>
+        <v>0.8325578531131428</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4977088535174429</v>
       </c>
       <c r="E19" t="n">
-        <v>4.684703643265077</v>
+        <v>4.676255882641056</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.385354714252745</v>
+        <v>-1.382458519069552</v>
       </c>
       <c r="G19" t="n">
-        <v>1.010802926447475</v>
+        <v>1.007809142078761</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5980254847609761</v>
       </c>
       <c r="E20" t="n">
-        <v>5.057244062913645</v>
+        <v>5.047384407137817</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.558318166425553</v>
+        <v>-1.555943758581071</v>
       </c>
       <c r="G20" t="n">
-        <v>1.144775563956983</v>
+        <v>1.141756595282329</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6934505853732226</v>
       </c>
       <c r="E21" t="n">
-        <v>5.39356158052372</v>
+        <v>5.383520912548943</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.774689917925591</v>
+        <v>-1.772416247304873</v>
       </c>
       <c r="G21" t="n">
-        <v>1.278030448747178</v>
+        <v>1.274871392370728</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7783799549502899</v>
       </c>
       <c r="E22" t="n">
-        <v>5.693860818581071</v>
+        <v>5.682729355355233</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.928168587395818</v>
+        <v>-1.926401750932158</v>
       </c>
       <c r="G22" t="n">
-        <v>1.386393795153124</v>
+        <v>1.383039560405632</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.849725125059251</v>
       </c>
       <c r="E23" t="n">
-        <v>5.859952890279842</v>
+        <v>5.848287834571882</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.05887828326687</v>
+        <v>-2.057207461969609</v>
       </c>
       <c r="G23" t="n">
-        <v>1.498161744918443</v>
+        <v>1.494269195631467</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9060565980262721</v>
       </c>
       <c r="E24" t="n">
-        <v>6.02229250039343</v>
+        <v>6.010183571293264</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.153022727940546</v>
+        <v>-2.151472319106065</v>
       </c>
       <c r="G24" t="n">
-        <v>1.534486958199821</v>
+        <v>1.531290125364459</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9490961601544655</v>
       </c>
       <c r="E25" t="n">
-        <v>6.117544267518942</v>
+        <v>6.104815174884983</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.185634043105214</v>
+        <v>-2.184440149601708</v>
       </c>
       <c r="G25" t="n">
-        <v>1.60566725090328</v>
+        <v>1.602492454335617</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9838480675292938</v>
       </c>
       <c r="E26" t="n">
-        <v>6.170168448801387</v>
+        <v>6.157777770278509</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.206314293330423</v>
+        <v>-2.205214053964634</v>
       </c>
       <c r="G26" t="n">
-        <v>1.677854915844373</v>
+        <v>1.674061529762038</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.016260095487204</v>
       </c>
       <c r="E27" t="n">
-        <v>6.157596758079559</v>
+        <v>6.145338297162869</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.197181834388637</v>
+        <v>-2.196261033202676</v>
       </c>
       <c r="G27" t="n">
-        <v>1.649221934008792</v>
+        <v>1.645486786633945</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.048687756688887</v>
       </c>
       <c r="E28" t="n">
-        <v>6.096803417557562</v>
+        <v>6.0842883915241</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.208688701174906</v>
+        <v>-2.20790720068118</v>
       </c>
       <c r="G28" t="n">
-        <v>1.640484553866451</v>
+        <v>1.637133467157202</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.080710542895226</v>
       </c>
       <c r="E29" t="n">
-        <v>5.993912935636379</v>
+        <v>5.981882707492278</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.157293828826196</v>
+        <v>-2.156642971919538</v>
       </c>
       <c r="G29" t="n">
-        <v>1.613202080436947</v>
+        <v>1.609942286836733</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.110581163110273</v>
       </c>
       <c r="E30" t="n">
-        <v>5.862403638051706</v>
+        <v>5.850138881058531</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.155474262721972</v>
+        <v>-2.154286665294951</v>
       </c>
       <c r="G30" t="n">
-        <v>1.54782204819548</v>
+        <v>1.544475683543595</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.135541503158158</v>
       </c>
       <c r="E31" t="n">
-        <v>5.661247142387722</v>
+        <v>5.6497253224198</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.093779796253031</v>
+        <v>-2.093340644918188</v>
       </c>
       <c r="G31" t="n">
-        <v>1.483469850440223</v>
+        <v>1.480214778897373</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.153299670626285</v>
       </c>
       <c r="E32" t="n">
-        <v>5.474469311396818</v>
+        <v>5.463440159413864</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.016388424096919</v>
+        <v>-2.015984688192305</v>
       </c>
       <c r="G32" t="n">
-        <v>1.438821224045407</v>
+        <v>1.435876234269454</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.162324744245587</v>
       </c>
       <c r="E33" t="n">
-        <v>5.202960457087177</v>
+        <v>5.193080339062773</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.981250808242563</v>
+        <v>-1.980208807584262</v>
       </c>
       <c r="G33" t="n">
-        <v>1.377505309175139</v>
+        <v>1.374897159491144</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.161491435056063</v>
       </c>
       <c r="E34" t="n">
-        <v>4.969434258193643</v>
+        <v>4.960943999053347</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.911223484545456</v>
+        <v>-1.91000598075513</v>
       </c>
       <c r="G34" t="n">
-        <v>1.28201429114319</v>
+        <v>1.279401419401831</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.150318378548886</v>
       </c>
       <c r="E35" t="n">
-        <v>4.672434164214537</v>
+        <v>4.665039422382667</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.874250562395663</v>
+        <v>-1.873046437767868</v>
       </c>
       <c r="G35" t="n">
-        <v>1.195503052198262</v>
+        <v>1.192943697107027</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.129910359194772</v>
       </c>
       <c r="E36" t="n">
-        <v>4.290183620606665</v>
+        <v>4.284425858660947</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.83319856969302</v>
+        <v>-1.832247075134194</v>
       </c>
       <c r="G36" t="n">
-        <v>1.145368969165714</v>
+        <v>1.142985904216064</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.100939460043547</v>
       </c>
       <c r="E37" t="n">
-        <v>3.974991013623566</v>
+        <v>3.970010817123771</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.790852733272668</v>
+        <v>-1.790420665023871</v>
       </c>
       <c r="G37" t="n">
-        <v>1.062161596356396</v>
+        <v>1.05985565834369</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.063948437619251</v>
       </c>
       <c r="E38" t="n">
-        <v>3.682911303417647</v>
+        <v>3.679047086474854</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.713509368699755</v>
+        <v>-1.713192990856374</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9811956267758093</v>
+        <v>0.9797270669356358</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.018950006891882</v>
       </c>
       <c r="E39" t="n">
-        <v>3.332507888691052</v>
+        <v>3.329945385561574</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.678575588321608</v>
+        <v>-1.678267867583394</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8974341992357933</v>
+        <v>0.8960537844664125</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.964618296399486</v>
       </c>
       <c r="E40" t="n">
-        <v>2.999576086210894</v>
+        <v>2.997499954989899</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.643519034451999</v>
+        <v>-1.642922481205026</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8358113506368713</v>
+        <v>0.834616670123804</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9014893950502413</v>
       </c>
       <c r="E41" t="n">
-        <v>2.674385309769293</v>
+        <v>2.673286644422626</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.623196086567325</v>
+        <v>-1.622462593656799</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7820585976444528</v>
+        <v>0.781070113636276</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8310529085024793</v>
       </c>
       <c r="E42" t="n">
-        <v>2.336880981741758</v>
+        <v>2.336522105382101</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.572474894402532</v>
+        <v>-1.571731170367717</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7175301097476098</v>
+        <v>0.7170594780303409</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7555701319644943</v>
       </c>
       <c r="E43" t="n">
-        <v>2.077328376677517</v>
+        <v>2.077556609450105</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.519471374511852</v>
+        <v>-1.519042454301298</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6413759166208399</v>
+        <v>0.6411036113128549</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6781605961001808</v>
       </c>
       <c r="E44" t="n">
-        <v>1.824426002400771</v>
+        <v>1.824660531249845</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.503384112082599</v>
+        <v>-1.502686034602302</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5575074557805754</v>
+        <v>0.5572036700901644</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.602015549395103</v>
       </c>
       <c r="E45" t="n">
-        <v>1.599182292123521</v>
+        <v>1.599465615565355</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.426986733001588</v>
+        <v>-1.426449205471664</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5037972013044321</v>
+        <v>0.5035862827421778</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5296792624084452</v>
       </c>
       <c r="E46" t="n">
-        <v>1.384504972207563</v>
+        <v>1.385117265645749</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.362393710320772</v>
+        <v>-1.362404728454621</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4403091400467688</v>
+        <v>0.4403925630601977</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4626046889948581</v>
       </c>
       <c r="E47" t="n">
-        <v>1.234526134253549</v>
+        <v>1.235135279653492</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.313930448585484</v>
+        <v>-1.314525427813336</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3758467609530204</v>
+        <v>0.3760167550181209</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4012197569382203</v>
       </c>
       <c r="E48" t="n">
-        <v>1.02332110051918</v>
+        <v>1.02432532471857</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.237487422949955</v>
+        <v>-1.237913195122267</v>
       </c>
       <c r="G48" t="n">
-        <v>0.290926855339727</v>
+        <v>0.2910937013665849</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3454787139361876</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8658766898728357</v>
+        <v>0.8670194277549</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.167227931432457</v>
+        <v>-1.167635602384873</v>
       </c>
       <c r="G49" t="n">
-        <v>0.247096718887988</v>
+        <v>0.2474256888843399</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2950244261223848</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7687534140120981</v>
+        <v>0.7698347651484316</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.093405647633894</v>
+        <v>-1.094147797649587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2100789371932385</v>
+        <v>0.2101560641301822</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2490680153829647</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6331437966164374</v>
+        <v>0.6343542173207176</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.061904015949742</v>
+        <v>-1.06238566580086</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1679518894307469</v>
+        <v>0.1682005844519124</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2064942388067793</v>
       </c>
       <c r="E52" t="n">
-        <v>0.461882646123316</v>
+        <v>0.4628097433857621</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.025646485490581</v>
+        <v>-1.026333544837029</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1249528350750547</v>
+        <v>0.1253305996641668</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1665599734981802</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4037210655721343</v>
+        <v>0.4044939089606929</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.027924878168664</v>
+        <v>-1.028275884432714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09862579125217937</v>
+        <v>0.09879106325991595</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1287178700513063</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2474398550564316</v>
+        <v>0.2476240152936238</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9672826434823121</v>
+        <v>-0.9677564232378236</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05347033070030524</v>
+        <v>0.05351125519745906</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09310000507917653</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1292766656012677</v>
+        <v>0.1294450856472468</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9456178442967295</v>
+        <v>-0.9459098248437307</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02639720181393341</v>
+        <v>0.02645544052142153</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05951008054983054</v>
       </c>
       <c r="E56" t="n">
-        <v>0.042392384124591</v>
+        <v>0.04242229048789571</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9300570912635509</v>
+        <v>-0.9304490220247547</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008220200720832616</v>
+        <v>-0.008201312491377007</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02737467432030103</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06797311460364933</v>
+        <v>-0.06831939881033548</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9317963823925881</v>
+        <v>-0.9319278129892167</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04947209385188104</v>
+        <v>-0.04951774040639876</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.004383289297868176</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1254452747797013</v>
+        <v>-0.12544370076058</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9118220797432823</v>
+        <v>-0.9122147975140469</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08010250595239243</v>
+        <v>-0.08004741528314691</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03683943031014698</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.205032403610028</v>
+        <v>-0.2053110049944982</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9230566412215661</v>
+        <v>-0.9233076972714135</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1046461861108341</v>
+        <v>-0.1049295095526682</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07021720862957664</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3003550015959977</v>
+        <v>-0.2999992732745837</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9196732871203301</v>
+        <v>-0.9198039307073982</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1239011620217054</v>
+        <v>-0.1242899447446666</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1042249274758356</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.393105652337762</v>
+        <v>-0.3931355587010667</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9011911545980175</v>
+        <v>-0.9012210609613223</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1479380080230882</v>
+        <v>-0.1480245790747597</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1385611793281539</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5037151240298039</v>
+        <v>-0.5031956977197747</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8904138456744717</v>
+        <v>-0.890546063280661</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1763899776597194</v>
+        <v>-0.1763962737362046</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1732649976743748</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5664366379753938</v>
+        <v>-0.5660903537687075</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9009605607967469</v>
+        <v>-0.9009463946246553</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1982121787574321</v>
+        <v>-0.1982263449295238</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2084646894028269</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6894053078078887</v>
+        <v>-0.6883475669583746</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9233714450458261</v>
+        <v>-0.9235485221969725</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2358091994888204</v>
+        <v>-0.2355888368118383</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2438840713096417</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8135733802108147</v>
+        <v>-0.8122008355370405</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9567886580006004</v>
+        <v>-0.9574206266778026</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2830706976249948</v>
+        <v>-0.2824835884927497</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2787266475976648</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9101811648093264</v>
+        <v>-0.9086228858792387</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9854208528266206</v>
+        <v>-0.986009535977987</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3112157335329724</v>
+        <v>-0.3104885366989315</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.31174119635586</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.953993987050731</v>
+        <v>-0.9523790434322765</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.024284958950656</v>
+        <v>-1.024973592316225</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3525400315436007</v>
+        <v>-0.3514555323690245</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3413660707093398</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9999624284787569</v>
+        <v>-0.9983506328985451</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.038735241493757</v>
+        <v>-1.038759638790137</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.376726409361507</v>
+        <v>-0.3754719161218304</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3664663706725715</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.070860971759504</v>
+        <v>-1.068163102985594</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.088420729076734</v>
+        <v>-1.088345963168473</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3974861475523418</v>
+        <v>-0.3959514789090736</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3868702556101634</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.10104987149649</v>
+        <v>-1.098097798634491</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.136344889262976</v>
+        <v>-1.135498066975717</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4123684983442398</v>
+        <v>-0.4104749533413151</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4029590708924399</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.124044716839572</v>
+        <v>-1.120404797621564</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.146044782097992</v>
+        <v>-1.145168053447427</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4427171610220384</v>
+        <v>-0.4406866763555605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4157447105047392</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.155507785055252</v>
+        <v>-1.150944703622601</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.191289174730219</v>
+        <v>-1.189604187260867</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4215544739361506</v>
+        <v>-0.4194012157782113</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4255585264124393</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.133479387452649</v>
+        <v>-1.127946710241277</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.213685892807207</v>
+        <v>-1.212381817965209</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4295599351870859</v>
+        <v>-0.4273704745893567</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4316877853244818</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.140698626152494</v>
+        <v>-1.134539489330844</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.237943888495133</v>
+        <v>-1.235911829809533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4340632038931272</v>
+        <v>-0.4315557914328952</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4335719712310954</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.102188674330751</v>
+        <v>-1.095284239455166</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.253230762201205</v>
+        <v>-1.251759841332349</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4426557742763076</v>
+        <v>-0.4398146697623599</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4318158001619001</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.013731160742335</v>
+        <v>-1.007100605193856</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.273072060234761</v>
+        <v>-1.270818851862619</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4167899180559734</v>
+        <v>-0.4138795567006885</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4274190465676518</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9546259557279333</v>
+        <v>-0.9478395722864453</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.281500145619765</v>
+        <v>-1.279472021981969</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3999825418787247</v>
+        <v>-0.3970391261218924</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4199076460107894</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8027488507136299</v>
+        <v>-0.7966888770966223</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.267720395222338</v>
+        <v>-1.265676531393329</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3568843243183906</v>
+        <v>-0.3538543375098868</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4080686226961809</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6890180991040487</v>
+        <v>-0.6831407117051119</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.285619353660209</v>
+        <v>-1.28393908824822</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3415187496562532</v>
+        <v>-0.3385123731345689</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3904540079874975</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5273301329066782</v>
+        <v>-0.5220729090415338</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.278067996925769</v>
+        <v>-1.276870168374459</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3190653668908989</v>
+        <v>-0.316332869696321</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3666380565116414</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3810785722319034</v>
+        <v>-0.3761880948220222</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.292934607526454</v>
+        <v>-1.291568358929165</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2957258113602523</v>
+        <v>-0.29281859804321</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3367501700183248</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2177237197850755</v>
+        <v>-0.2131496202185757</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.304572904909351</v>
+        <v>-1.303140547508968</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2698284747574921</v>
+        <v>-0.2670550530657603</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3014515743626163</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.02152381033406603</v>
+        <v>-0.01714488913860752</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.280262966590423</v>
+        <v>-1.279285500716095</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2028098886107514</v>
+        <v>-0.2007416274853623</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2618745758869379</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1443510467259644</v>
+        <v>0.1483994239059497</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.278506361251051</v>
+        <v>-1.277824810971528</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1797725447513946</v>
+        <v>-0.1776381748229108</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2191828325010969</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3158420040107956</v>
+        <v>0.3199124174584791</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.19507705174563</v>
+        <v>-1.194451379144913</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1331988929712285</v>
+        <v>-0.1312502572990583</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1743288143802333</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5243932415066516</v>
+        <v>0.5275239655389186</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.124404380208789</v>
+        <v>-1.123600843447365</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0779744321003939</v>
+        <v>-0.07634060025248378</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1271608318823489</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7166565291352879</v>
+        <v>0.7191765337484903</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038560525371292</v>
+        <v>-1.037957676047834</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03043905463711313</v>
+        <v>-0.02910113838400754</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07796694967365994</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8769955609457037</v>
+        <v>0.8793739038379891</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.91097210941778</v>
+        <v>-0.9106234641824119</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.005739546585662733</v>
+        <v>-0.004294597032308701</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02917430429111972</v>
       </c>
       <c r="E89" t="n">
-        <v>1.018366088325325</v>
+        <v>1.0205146244259</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.801472321206255</v>
+        <v>-0.8013999163266752</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02810816059878726</v>
+        <v>0.02914543919972441</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01565481449225824</v>
       </c>
       <c r="E90" t="n">
-        <v>1.124393590355261</v>
+        <v>1.126021126126686</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6547155003935428</v>
+        <v>-0.6549972498162556</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0467524170905939</v>
+        <v>0.04771571679282993</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05174246366526456</v>
       </c>
       <c r="E91" t="n">
-        <v>1.226095687839862</v>
+        <v>1.227200649263015</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4791604257375132</v>
+        <v>-0.4796153172635691</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02162320181902842</v>
+        <v>0.02257863142565794</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07577240006208188</v>
       </c>
       <c r="E92" t="n">
-        <v>1.2651077517613</v>
+        <v>1.265918371608769</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3274533147883103</v>
+        <v>-0.328273378750508</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0494880623234145</v>
+        <v>0.05023886944427493</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08582514417699789</v>
       </c>
       <c r="E93" t="n">
-        <v>1.297132744803283</v>
+        <v>1.297609672597037</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2189546027379326</v>
+        <v>-0.2197809627766155</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0396409987005574</v>
+        <v>0.04001718927054826</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08295325281078546</v>
       </c>
       <c r="E94" t="n">
-        <v>1.250293083791618</v>
+        <v>1.250407987187472</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09011956364035001</v>
+        <v>-0.0910387908071896</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05641374645713752</v>
+        <v>0.05670493999457815</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07158481810899649</v>
       </c>
       <c r="E95" t="n">
-        <v>1.221578252961729</v>
+        <v>1.221159563875463</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.004349687701554225</v>
+        <v>-0.005007627694257913</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01329821468646909</v>
+        <v>0.01346033865596306</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05714907078557117</v>
       </c>
       <c r="E96" t="n">
-        <v>1.133337167002491</v>
+        <v>1.13274218777464</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07276308307008778</v>
+        <v>0.07194616714613271</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0287705943685344</v>
+        <v>-0.02848412288845767</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04439467840762149</v>
       </c>
       <c r="E97" t="n">
-        <v>1.07092888286204</v>
+        <v>1.070167057607331</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204117899101022</v>
+        <v>0.1196247803494518</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01479173055226299</v>
+        <v>-0.01472404773004706</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03535713619664284</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9696974170947078</v>
+        <v>0.9690819756182792</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1152710434599341</v>
+        <v>0.1148507803545469</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06848152277982945</v>
+        <v>-0.06812264642017289</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03196476917867799</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9099791316325597</v>
+        <v>0.9091323093453</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279151390613426</v>
+        <v>0.1276632960019345</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06134492008385213</v>
+        <v>-0.06090891678725184</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.03124173298641924</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8555385322841328</v>
+        <v>0.8550741966433492</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1201253184300255</v>
+        <v>0.1198057925484014</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06896159861182616</v>
+        <v>-0.06852874335346847</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03101814787949543</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7753690163789249</v>
+        <v>0.7748401459541678</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1138654443846126</v>
+        <v>0.1137662811799707</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06560264180697049</v>
+        <v>-0.06557273544366578</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.02154269210295329</v>
       </c>
       <c r="E102" t="n">
-        <v>0.751928723624515</v>
+        <v>0.7511401400447434</v>
       </c>
       <c r="F102" t="n">
-        <v>0.11161144900291</v>
+        <v>0.1118664401005608</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06436546277762815</v>
+        <v>-0.06445675588666359</v>
       </c>
     </row>
   </sheetData>
